--- a/Experiements Result/P-2.xlsx
+++ b/Experiements Result/P-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="52">
   <si>
     <t>Query no: 1</t>
   </si>
@@ -97,12 +97,6 @@
     <t>Duplicate Unaware Rank SE</t>
   </si>
   <si>
-    <t>Query Type: P-1</t>
-  </si>
-  <si>
-    <t>Query Type: p-1</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -134,9 +128,6 @@
   </si>
   <si>
     <t>Query no: 6</t>
-  </si>
-  <si>
-    <t>Query:   select   ?o where{?uri &lt;http://data.semanticweb.org/ns/swc/ontology#hasRelatedDocument&gt; ?o1.?o1 &lt;http://swrc.ontoware.org/ontology#editor&gt; ?o}</t>
   </si>
   <si>
     <t>Query no: 7</t>
@@ -172,10 +163,13 @@
     <t>Query:   select   ?o where{?uri &lt;http://data.semanticweb.org/ns/swc/ontology#hasRelatedDocument&gt; ?o1.?o1 &lt;http://swrc.ontoware.org/ontology#editor&gt; ?o. ?o1 &lt;http://swrc.ontoware.org/ontology#booktitle&gt; ?o}</t>
   </si>
   <si>
-    <t>Query:   select   ?o where{?uri &lt;http://xmlns.com/foaf/0.1/made&gt; ?o1.?o1  &lt;http://swrc.ontoware.org/ontology#year&gt; ?o. ?o1  &lt;http://swrc.ontoware.org/ontology#year&gt; ?o}</t>
+    <t>Query:   select   ?o where{?uri &lt;http://data.semanticweb.org/ns/swc/ontology#hasRelatedDocument&gt; ?o1.?o1 &lt;http://swrc.ontoware.org/ontology#booktitle&gt;?o. ?o1 &lt;http://swrc.ontoware.org/ontology#address&gt; ?o.}</t>
   </si>
   <si>
-    <t>Query:   select   ?o where{?uri &lt;http://data.semanticweb.org/ns/swc/ontology#hasRelatedDocument&gt; ?o1.?o1 &lt;http://swrc.ontoware.org/ontology#booktitle&gt;?o. ?o1 &lt;http://swrc.ontoware.org/ontology#address&gt; ?o.}</t>
+    <t>Query Type: P-2</t>
+  </si>
+  <si>
+    <t>Query:   select   ?o where{?uri &lt;http://xmlns.com/foaf/0.1/made&gt; ?o1.?o1  &lt;http://swrc.ontoware.org/ontology#year&gt; ?o. ?o1  &lt;http://swrc.ontoware.org/ontology#month&gt; ?o}</t>
   </si>
 </sst>
 </file>
@@ -591,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z153"/>
+  <dimension ref="A1:Z140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D137" sqref="D137"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +622,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -637,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
@@ -991,7 +985,7 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -1000,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1354,7 +1348,7 @@
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1363,7 +1357,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.25">
@@ -1703,7 +1697,7 @@
     <row r="27" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:26" s="13" customFormat="1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D28" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:26" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1731,7 +1725,7 @@
     </row>
     <row r="34" spans="1:26" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D34" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:26" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -1826,7 +1820,7 @@
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>0</v>
@@ -1835,7 +1829,7 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.25">
@@ -2469,7 +2463,7 @@
     </row>
     <row r="54" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -2478,7 +2472,7 @@
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.25">
@@ -3112,7 +3106,7 @@
     </row>
     <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B67" t="s">
         <v>17</v>
@@ -3121,7 +3115,7 @@
         <v>22</v>
       </c>
       <c r="D67" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:26" x14ac:dyDescent="0.25">
@@ -3755,7 +3749,7 @@
     </row>
     <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -3764,7 +3758,7 @@
         <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:26" x14ac:dyDescent="0.25">
@@ -3825,10 +3819,10 @@
         <v>1</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D82">
         <v>8</v>
@@ -3877,10 +3871,10 @@
         <v>2</v>
       </c>
       <c r="B83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D83">
         <v>9</v>
@@ -3929,10 +3923,10 @@
         <v>3</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -3987,10 +3981,10 @@
         <v>4</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D85">
         <v>7</v>
@@ -4039,10 +4033,10 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D86">
         <v>3</v>
@@ -4091,10 +4085,10 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C87" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D87">
         <v>4</v>
@@ -4143,10 +4137,10 @@
         <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C88" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D88">
         <v>2</v>
@@ -4195,10 +4189,10 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C89" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D89">
         <v>6</v>
@@ -4257,10 +4251,10 @@
         <v>9</v>
       </c>
       <c r="B90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D90">
         <v>5</v>
@@ -4309,10 +4303,10 @@
         <v>10</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D91">
         <v>10</v>
@@ -4396,7 +4390,7 @@
     </row>
     <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B93" t="s">
         <v>19</v>
@@ -4405,7 +4399,7 @@
         <v>22</v>
       </c>
       <c r="D93" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U93" s="9"/>
       <c r="V93" s="9"/>
@@ -4472,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D95">
         <v>8</v>
@@ -4528,10 +4522,10 @@
         <v>2</v>
       </c>
       <c r="B96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C96" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D96">
         <v>7</v>
@@ -4565,7 +4559,7 @@
         <v>6241</v>
       </c>
       <c r="N96">
-        <f t="shared" ref="N96:N104" si="14">POWER((H96-I96),2)</f>
+        <f t="shared" ref="N96:N97" si="14">POWER((H96-I96),2)</f>
         <v>11664</v>
       </c>
       <c r="O96">
@@ -4584,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D97">
         <v>2</v>
@@ -4640,10 +4634,10 @@
         <v>4</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D98">
         <v>3</v>
@@ -4695,10 +4689,10 @@
         <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D99">
         <v>6</v>
@@ -4732,7 +4726,7 @@
         <v>14400</v>
       </c>
       <c r="N99">
-        <f t="shared" ref="N99:N105" si="16">POWER((H99-I99),2)</f>
+        <f t="shared" ref="N99:N104" si="16">POWER((H99-I99),2)</f>
         <v>4900</v>
       </c>
       <c r="O99">
@@ -4751,10 +4745,10 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C100" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -4807,10 +4801,10 @@
         <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -4863,10 +4857,10 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D102">
         <v>4</v>
@@ -4919,10 +4913,10 @@
         <v>9</v>
       </c>
       <c r="B103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D103">
         <v>9</v>
@@ -4975,10 +4969,10 @@
         <v>10</v>
       </c>
       <c r="B104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D104">
         <v>10</v>
@@ -5053,16 +5047,16 @@
     </row>
     <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C106" t="s">
         <v>22</v>
       </c>
       <c r="D106" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U106" s="9"/>
       <c r="V106" s="9"/>
@@ -5697,16 +5691,16 @@
     </row>
     <row r="119" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C119" t="s">
         <v>22</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:26" x14ac:dyDescent="0.25">
@@ -5767,10 +5761,10 @@
         <v>1</v>
       </c>
       <c r="B121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C121" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D121">
         <v>8</v>
@@ -5823,10 +5817,10 @@
         <v>2</v>
       </c>
       <c r="B122" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C122" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D122">
         <v>7</v>
@@ -5860,7 +5854,7 @@
         <v>6241</v>
       </c>
       <c r="N122">
-        <f t="shared" ref="N122:N130" si="20">POWER((H122-I122),2)</f>
+        <f t="shared" ref="N122:N123" si="20">POWER((H122-I122),2)</f>
         <v>11664</v>
       </c>
       <c r="O122">
@@ -5879,10 +5873,10 @@
         <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -5935,10 +5929,10 @@
         <v>4</v>
       </c>
       <c r="B124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D124">
         <v>3</v>
@@ -5990,10 +5984,10 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D125">
         <v>6</v>
@@ -6027,7 +6021,7 @@
         <v>14400</v>
       </c>
       <c r="N125">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="N125:N130" si="22">POWER((H125-I125),2)</f>
         <v>4900</v>
       </c>
       <c r="O125">
@@ -6046,10 +6040,10 @@
         <v>6</v>
       </c>
       <c r="B126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C126" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -6083,7 +6077,7 @@
         <v>10000</v>
       </c>
       <c r="N126">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4489</v>
       </c>
       <c r="O126">
@@ -6102,10 +6096,10 @@
         <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D127">
         <v>5</v>
@@ -6139,7 +6133,7 @@
         <v>10404</v>
       </c>
       <c r="N127">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2601</v>
       </c>
       <c r="O127">
@@ -6158,10 +6152,10 @@
         <v>8</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D128">
         <v>4</v>
@@ -6195,7 +6189,7 @@
         <v>11881</v>
       </c>
       <c r="N128">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1521</v>
       </c>
       <c r="O128">
@@ -6214,10 +6208,10 @@
         <v>9</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D129">
         <v>9</v>
@@ -6251,7 +6245,7 @@
         <v>25</v>
       </c>
       <c r="N129">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O129">
@@ -6270,10 +6264,10 @@
         <v>10</v>
       </c>
       <c r="B130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D130">
         <v>10</v>
@@ -6307,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="N130">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O130">
@@ -6346,658 +6340,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>28</v>
-      </c>
-      <c r="B132" t="s">
-        <v>41</v>
-      </c>
-      <c r="C132" t="s">
-        <v>22</v>
-      </c>
-      <c r="D132" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>2</v>
-      </c>
-      <c r="B133" t="s">
-        <v>23</v>
-      </c>
-      <c r="C133" t="s">
-        <v>4</v>
-      </c>
-      <c r="D133" t="s">
-        <v>5</v>
-      </c>
-      <c r="E133" t="s">
-        <v>3</v>
-      </c>
-      <c r="F133" t="s">
-        <v>24</v>
-      </c>
-      <c r="G133" t="s">
-        <v>7</v>
-      </c>
-      <c r="H133" t="s">
-        <v>8</v>
-      </c>
-      <c r="I133" t="s">
-        <v>6</v>
-      </c>
-      <c r="J133" t="s">
-        <v>9</v>
-      </c>
-      <c r="K133" t="s">
-        <v>10</v>
-      </c>
-      <c r="L133" t="s">
-        <v>11</v>
-      </c>
-      <c r="M133" t="s">
-        <v>25</v>
-      </c>
-      <c r="N133" t="s">
-        <v>12</v>
-      </c>
-      <c r="O133" t="s">
-        <v>13</v>
-      </c>
-      <c r="P133" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A134">
-        <v>1</v>
-      </c>
-      <c r="B134" t="s">
-        <v>35</v>
-      </c>
-      <c r="C134" t="s">
-        <v>35</v>
-      </c>
-      <c r="D134">
-        <v>8</v>
-      </c>
-      <c r="E134">
-        <v>9</v>
-      </c>
-      <c r="F134">
-        <v>61</v>
-      </c>
-      <c r="G134">
-        <v>61</v>
-      </c>
-      <c r="H134">
-        <v>112</v>
-      </c>
-      <c r="I134">
-        <v>4</v>
-      </c>
-      <c r="J134">
-        <v>61</v>
-      </c>
-      <c r="K134">
-        <v>61</v>
-      </c>
-      <c r="L134">
-        <f>POWER((H134-G134),2)</f>
-        <v>2601</v>
-      </c>
-      <c r="M134">
-        <v>2601</v>
-      </c>
-      <c r="N134">
-        <f>POWER((H134-I134),2)</f>
-        <v>11664</v>
-      </c>
-      <c r="O134">
-        <v>64</v>
-      </c>
-      <c r="P134">
-        <f>O134</f>
-        <v>64</v>
-      </c>
-      <c r="Q134">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A135">
-        <v>2</v>
-      </c>
-      <c r="B135" t="s">
-        <v>37</v>
-      </c>
-      <c r="C135" t="s">
-        <v>37</v>
-      </c>
-      <c r="D135">
-        <v>7</v>
-      </c>
-      <c r="E135">
-        <v>7</v>
-      </c>
-      <c r="F135">
-        <v>94</v>
-      </c>
-      <c r="G135">
-        <v>94</v>
-      </c>
-      <c r="H135">
-        <v>173</v>
-      </c>
-      <c r="I135">
-        <v>65</v>
-      </c>
-      <c r="J135">
-        <v>94</v>
-      </c>
-      <c r="K135">
-        <v>94</v>
-      </c>
-      <c r="L135">
-        <f t="shared" ref="L135:L143" si="22">POWER((H135-G135),2)</f>
-        <v>6241</v>
-      </c>
-      <c r="M135">
-        <v>6241</v>
-      </c>
-      <c r="N135">
-        <f t="shared" ref="N135:N136" si="23">POWER((H135-I135),2)</f>
-        <v>11664</v>
-      </c>
-      <c r="O135">
-        <v>1</v>
-      </c>
-      <c r="P135">
-        <f t="shared" ref="P135:P144" si="24">O135</f>
-        <v>1</v>
-      </c>
-      <c r="Q135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A136">
-        <v>3</v>
-      </c>
-      <c r="B136" t="s">
-        <v>36</v>
-      </c>
-      <c r="C136" t="s">
-        <v>36</v>
-      </c>
-      <c r="D136">
-        <v>2</v>
-      </c>
-      <c r="E136">
-        <v>3</v>
-      </c>
-      <c r="F136">
-        <v>124</v>
-      </c>
-      <c r="G136">
-        <v>124</v>
-      </c>
-      <c r="H136">
-        <v>220</v>
-      </c>
-      <c r="I136">
-        <v>98</v>
-      </c>
-      <c r="J136">
-        <v>124</v>
-      </c>
-      <c r="K136">
-        <v>124</v>
-      </c>
-      <c r="L136">
-        <f t="shared" si="22"/>
-        <v>9216</v>
-      </c>
-      <c r="M136">
-        <v>9216</v>
-      </c>
-      <c r="N136">
-        <f t="shared" si="23"/>
-        <v>14884</v>
-      </c>
-      <c r="O136">
-        <v>9</v>
-      </c>
-      <c r="P136">
-        <f t="shared" si="24"/>
-        <v>9</v>
-      </c>
-      <c r="Q136">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A137">
-        <v>4</v>
-      </c>
-      <c r="B137" t="s">
-        <v>34</v>
-      </c>
-      <c r="C137" t="s">
-        <v>34</v>
-      </c>
-      <c r="D137">
-        <v>3</v>
-      </c>
-      <c r="E137">
-        <v>4</v>
-      </c>
-      <c r="F137">
-        <v>151</v>
-      </c>
-      <c r="G137">
-        <v>151</v>
-      </c>
-      <c r="H137">
-        <v>253</v>
-      </c>
-      <c r="I137">
-        <v>101</v>
-      </c>
-      <c r="J137">
-        <v>148</v>
-      </c>
-      <c r="K137">
-        <v>148</v>
-      </c>
-      <c r="L137">
-        <f t="shared" si="22"/>
-        <v>10404</v>
-      </c>
-      <c r="M137">
-        <v>10404</v>
-      </c>
-      <c r="N137">
-        <v>25104</v>
-      </c>
-      <c r="O137">
-        <v>4</v>
-      </c>
-      <c r="P137">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="Q137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A138">
-        <v>5</v>
-      </c>
-      <c r="B138" t="s">
-        <v>31</v>
-      </c>
-      <c r="C138" t="s">
-        <v>31</v>
-      </c>
-      <c r="D138">
-        <v>6</v>
-      </c>
-      <c r="E138">
-        <v>8</v>
-      </c>
-      <c r="F138">
-        <v>163</v>
-      </c>
-      <c r="G138">
-        <v>163</v>
-      </c>
-      <c r="H138">
-        <v>283</v>
-      </c>
-      <c r="I138">
-        <v>213</v>
-      </c>
-      <c r="J138">
-        <v>170</v>
-      </c>
-      <c r="K138">
-        <v>170</v>
-      </c>
-      <c r="L138">
-        <f t="shared" si="22"/>
-        <v>14400</v>
-      </c>
-      <c r="M138">
-        <v>14400</v>
-      </c>
-      <c r="N138">
-        <f t="shared" ref="N138:N143" si="25">POWER((H138-I138),2)</f>
-        <v>4900</v>
-      </c>
-      <c r="O138">
-        <v>4</v>
-      </c>
-      <c r="P138">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="Q138">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A139">
-        <v>6</v>
-      </c>
-      <c r="B139" t="s">
-        <v>29</v>
-      </c>
-      <c r="C139" t="s">
-        <v>29</v>
-      </c>
-      <c r="D139">
-        <v>1</v>
-      </c>
-      <c r="E139">
-        <v>6</v>
-      </c>
-      <c r="F139">
-        <v>210</v>
-      </c>
-      <c r="G139">
-        <v>210</v>
-      </c>
-      <c r="H139">
-        <v>310</v>
-      </c>
-      <c r="I139">
-        <v>243</v>
-      </c>
-      <c r="J139">
-        <v>187</v>
-      </c>
-      <c r="K139">
-        <v>187</v>
-      </c>
-      <c r="L139">
-        <f t="shared" si="22"/>
-        <v>10000</v>
-      </c>
-      <c r="M139">
-        <v>10000</v>
-      </c>
-      <c r="N139">
-        <f t="shared" si="25"/>
-        <v>4489</v>
-      </c>
-      <c r="O139">
-        <v>4</v>
-      </c>
-      <c r="P139">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="Q139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A140">
-        <v>7</v>
-      </c>
-      <c r="B140" t="s">
-        <v>30</v>
-      </c>
-      <c r="C140" t="s">
-        <v>30</v>
-      </c>
-      <c r="D140">
-        <v>5</v>
-      </c>
-      <c r="E140">
-        <v>1</v>
-      </c>
-      <c r="F140">
-        <v>220</v>
-      </c>
-      <c r="G140">
-        <v>220</v>
-      </c>
-      <c r="H140">
-        <v>322</v>
-      </c>
-      <c r="I140">
-        <v>271</v>
-      </c>
-      <c r="J140">
-        <v>195</v>
-      </c>
-      <c r="K140">
-        <v>195</v>
-      </c>
-      <c r="L140">
-        <f t="shared" si="22"/>
-        <v>10404</v>
-      </c>
-      <c r="M140">
-        <v>10404</v>
-      </c>
-      <c r="N140">
-        <f t="shared" si="25"/>
-        <v>2601</v>
-      </c>
-      <c r="O140">
-        <v>4</v>
-      </c>
-      <c r="P140">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="Q140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A141">
-        <v>8</v>
-      </c>
-      <c r="B141" t="s">
-        <v>32</v>
-      </c>
-      <c r="C141" t="s">
-        <v>32</v>
-      </c>
-      <c r="D141">
-        <v>4</v>
-      </c>
-      <c r="E141">
-        <v>5</v>
-      </c>
-      <c r="F141">
-        <v>223</v>
-      </c>
-      <c r="G141">
-        <v>223</v>
-      </c>
-      <c r="H141">
-        <v>332</v>
-      </c>
-      <c r="I141">
-        <v>293</v>
-      </c>
-      <c r="J141">
-        <v>203</v>
-      </c>
-      <c r="K141">
-        <v>203</v>
-      </c>
-      <c r="L141">
-        <f t="shared" si="22"/>
-        <v>11881</v>
-      </c>
-      <c r="M141">
-        <v>11881</v>
-      </c>
-      <c r="N141">
-        <f t="shared" si="25"/>
-        <v>1521</v>
-      </c>
-      <c r="O141">
-        <v>1</v>
-      </c>
-      <c r="P141">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="Q141">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A142">
-        <v>9</v>
-      </c>
-      <c r="B142" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142" t="s">
-        <v>33</v>
-      </c>
-      <c r="D142">
-        <v>9</v>
-      </c>
-      <c r="E142">
-        <v>2</v>
-      </c>
-      <c r="F142">
-        <v>335</v>
-      </c>
-      <c r="G142">
-        <v>335</v>
-      </c>
-      <c r="H142">
-        <v>340</v>
-      </c>
-      <c r="I142">
-        <v>340</v>
-      </c>
-      <c r="J142">
-        <v>210</v>
-      </c>
-      <c r="K142">
-        <v>210</v>
-      </c>
-      <c r="L142">
-        <f t="shared" si="22"/>
-        <v>25</v>
-      </c>
-      <c r="M142">
-        <v>25</v>
-      </c>
-      <c r="N142">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O142">
-        <v>1</v>
-      </c>
-      <c r="P142">
-        <f t="shared" si="24"/>
-        <v>1</v>
-      </c>
-      <c r="Q142">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A143">
-        <v>10</v>
-      </c>
-      <c r="B143" t="s">
-        <v>38</v>
-      </c>
-      <c r="C143" t="s">
-        <v>38</v>
-      </c>
-      <c r="D143">
-        <v>10</v>
-      </c>
-      <c r="E143">
-        <v>10</v>
-      </c>
-      <c r="F143">
-        <v>340</v>
-      </c>
-      <c r="G143">
-        <v>340</v>
-      </c>
-      <c r="H143">
-        <v>340</v>
-      </c>
-      <c r="I143">
-        <v>340</v>
-      </c>
-      <c r="J143">
-        <v>214</v>
-      </c>
-      <c r="K143">
-        <v>214</v>
-      </c>
-      <c r="L143">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M143">
-        <v>0</v>
-      </c>
-      <c r="N143">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O143">
-        <v>4</v>
-      </c>
-      <c r="P143">
-        <f t="shared" si="24"/>
-        <v>4</v>
-      </c>
-      <c r="Q143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:17" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="L144" s="8">
-        <f>SUM(L134:L143)/10</f>
-        <v>7517.2</v>
-      </c>
-      <c r="M144" s="8">
-        <v>7517.2</v>
-      </c>
-      <c r="N144" s="8">
-        <f>SUM(N134:N143)/10</f>
-        <v>7682.7</v>
-      </c>
-      <c r="O144" s="8">
-        <f>SUM(O134:O143)/10</f>
-        <v>9.6</v>
-      </c>
-      <c r="P144" s="8">
-        <f t="shared" si="24"/>
-        <v>9.6</v>
-      </c>
-      <c r="Q144" s="8">
-        <f>SUM(Q134:Q143)/10</f>
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="153" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
